--- a/LCDataDictionary_2018.xlsx
+++ b/LCDataDictionary_2018.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gangu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gangu\OneDrive\Desktop\Academics\Lending club analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F42EF07-0B2B-4941-944A-A4F48D03B611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CB864D-3B01-4BC3-B07A-9BA3D0958CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoanStats" sheetId="3" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="400">
   <si>
     <t>id</t>
   </si>
@@ -1241,6 +1241,12 @@
   </si>
   <si>
     <t>sec_app_mths_since_last_major_derog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     </t>
   </si>
 </sst>
 </file>
@@ -2251,7 +2257,7 @@
   </sheetPr>
   <dimension ref="A1:D154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -5564,7 +5570,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5653,6 +5661,14 @@
         <v>240</v>
       </c>
     </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
     </row>
